--- a/Income And Expenses Forecast.xlsx
+++ b/Income And Expenses Forecast.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="3"/>
+    <workbookView windowHeight="21560"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -389,7 +389,7 @@
     <t>HSBC</t>
   </si>
   <si>
-    <t>Previous Amount</t>
+    <t>Previous Amount Brought Forward</t>
   </si>
   <si>
     <t>- See the Doctor ~ $125</t>
@@ -2901,7 +2901,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -38248,8 +38248,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130:D130"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>

--- a/Income And Expenses Forecast.xlsx
+++ b/Income And Expenses Forecast.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560"/>
+    <workbookView windowHeight="21560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="103">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -386,16 +386,15 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>HSBC</t>
+    <t>Mother borrowed $570 For Buying Cigarette Buds</t>
   </si>
   <si>
-    <t>Previous Amount Brought Forward</t>
+    <t>- See the Doctor ~ $125
+- Buy Cigarette Buds ~ $800</t>
   </si>
   <si>
-    <t>- See the Doctor ~ $125</t>
-  </si>
-  <si>
-    <t>- Fuck a prostitute who looks like Bill gates's wife.</t>
+    <t>-Visit prostitute $390
+-Return Trip To Mong Kok ~ $6</t>
   </si>
   <si>
     <t>Balance Brought Forward From July 2024</t>
@@ -2901,7 +2900,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -4698,7 +4697,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4714,7 +4713,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4730,7 +4729,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4746,7 +4745,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -6233,7 +6232,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -6429,7 +6428,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -6445,7 +6444,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -6539,7 +6538,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6807,7 +6806,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -6899,7 +6898,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7167,7 +7166,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7259,7 +7258,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7527,7 +7526,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8057,7 +8056,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8073,7 +8072,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8089,7 +8088,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -8105,7 +8104,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -9592,7 +9591,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -9788,7 +9787,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -9804,7 +9803,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -9898,7 +9897,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10166,7 +10165,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10258,7 +10257,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10526,7 +10525,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10618,7 +10617,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10886,7 +10885,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11417,7 +11416,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11433,7 +11432,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11449,7 +11448,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -11465,7 +11464,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -12952,7 +12951,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -13148,7 +13147,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -13164,7 +13163,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -13258,7 +13257,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13526,7 +13525,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13618,7 +13617,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13886,7 +13885,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -13978,7 +13977,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14246,7 +14245,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14775,7 +14774,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14791,7 +14790,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14807,7 +14806,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -14823,7 +14822,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -16310,7 +16309,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -16506,7 +16505,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -16522,7 +16521,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -16616,7 +16615,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16884,7 +16883,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -16976,7 +16975,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17244,7 +17243,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17336,7 +17335,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17604,7 +17603,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18135,7 +18134,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18151,7 +18150,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18167,7 +18166,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -18183,7 +18182,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -19670,7 +19669,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -19866,7 +19865,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -19882,7 +19881,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -19976,7 +19975,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20244,7 +20243,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20336,7 +20335,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20604,7 +20603,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20696,7 +20695,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -20964,7 +20963,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21493,7 +21492,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21509,7 +21508,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21525,7 +21524,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -21541,7 +21540,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -23028,7 +23027,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -23224,7 +23223,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -23240,7 +23239,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -23334,7 +23333,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23602,7 +23601,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23694,7 +23693,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -23962,7 +23961,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24054,7 +24053,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24322,7 +24321,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -24852,7 +24851,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -24868,7 +24867,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -24884,7 +24883,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -24900,7 +24899,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -26387,7 +26386,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -26583,7 +26582,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -26599,7 +26598,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -26693,7 +26692,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -26961,7 +26960,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27053,7 +27052,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27321,7 +27320,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27413,7 +27412,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27681,7 +27680,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28158,7 +28157,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28174,7 +28173,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28190,7 +28189,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -28206,7 +28205,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -29693,7 +29692,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -29768,7 +29767,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="36" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -29888,7 +29887,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -29904,7 +29903,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -29998,7 +29997,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30266,7 +30265,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30358,7 +30357,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30626,7 +30625,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30718,7 +30717,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -30986,7 +30985,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31465,7 +31464,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31481,7 +31480,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31497,7 +31496,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -31513,7 +31512,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -33000,7 +32999,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="68"/>
@@ -33196,7 +33195,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -33212,7 +33211,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -33306,7 +33305,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33574,7 +33573,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33666,7 +33665,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -33934,7 +33933,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34026,7 +34025,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34294,7 +34293,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -34732,7 +34731,7 @@
   <sheetPr/>
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:B53"/>
     </sheetView>
   </sheetViews>
@@ -35276,8 +35275,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35347,7 +35346,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="163">
-        <v>94.4</v>
+        <v>99.4</v>
       </c>
       <c r="D3" s="164" t="s">
         <v>34</v>
@@ -35356,7 +35355,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="190">
-        <v>0</v>
+        <v>594.4</v>
       </c>
       <c r="I3" s="198" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35364,7 +35363,7 @@
       </c>
       <c r="J3" s="199">
         <f>E149</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
       <c r="M3" s="204" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,3)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+2),"dd mmmm yyyy"))</f>
@@ -35372,7 +35371,7 @@
       </c>
       <c r="N3" s="199">
         <f>-C122</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="4" ht="35.25" customHeight="1" spans="1:14">
@@ -35381,14 +35380,14 @@
         <v>36</v>
       </c>
       <c r="C4" s="163">
-        <v>270</v>
+        <v>840</v>
       </c>
       <c r="D4" s="165"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="190">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="I4" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
@@ -35396,7 +35395,7 @@
       </c>
       <c r="J4" s="199">
         <f>E176</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
       <c r="M4" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,3),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*3+3),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,6)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*6+5),"dd mmmm yyyy"))</f>
@@ -35404,7 +35403,7 @@
       </c>
       <c r="N4" s="199">
         <f ca="1">'April 2025 - June 2025'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="5" ht="35.25" customHeight="1" spans="1:14">
@@ -35428,7 +35427,7 @@
       </c>
       <c r="J5" s="199">
         <f>E203</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
       <c r="M5" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,6),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*6+6),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,9)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9+8),"dd mmmm yyyy"))</f>
@@ -35436,7 +35435,7 @@
       </c>
       <c r="N5" s="199">
         <f ca="1">'July 2025 - September 2025'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:14">
@@ -35460,7 +35459,7 @@
       </c>
       <c r="J6" s="199">
         <f ca="1">'April 2025 - June 2025'!E136</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="M6" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9+9),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -35468,7 +35467,7 @@
       </c>
       <c r="N6" s="199">
         <f ca="1">'October 2025 - December 2025'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="7" ht="35.25" customHeight="1" spans="1:14">
@@ -35477,14 +35476,14 @@
         <v>39</v>
       </c>
       <c r="C7" s="163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="165"/>
       <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="190">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,4),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*4)+4,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,5)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*5+4),"dd mmmm yyyy"))</f>
@@ -35492,7 +35491,7 @@
       </c>
       <c r="J7" s="199">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>2580.71</v>
+        <v>3150.71</v>
       </c>
       <c r="M7" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35500,7 +35499,7 @@
       </c>
       <c r="N7" s="199">
         <f ca="1">'January 2026 - March 2026'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:14">
@@ -35525,7 +35524,7 @@
       </c>
       <c r="J8" s="199">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>4615.71</v>
+        <v>5185.71</v>
       </c>
       <c r="M8" s="207" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35533,7 +35532,7 @@
       </c>
       <c r="N8" s="199">
         <f ca="1">'April 2026 - June 2026'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="9" ht="39.75" customHeight="1" spans="1:14">
@@ -35557,7 +35556,7 @@
       </c>
       <c r="J9" s="199">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>6650.71</v>
+        <v>7220.71</v>
       </c>
       <c r="M9" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35565,7 +35564,7 @@
       </c>
       <c r="N9" s="208">
         <f ca="1">'July 2026 - September 2026'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="10" ht="35.25" customHeight="1" spans="1:14">
@@ -35589,7 +35588,7 @@
       </c>
       <c r="J10" s="199">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>8685.71</v>
+        <v>9255.71</v>
       </c>
       <c r="M10" s="209" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35597,7 +35596,7 @@
       </c>
       <c r="N10" s="199">
         <f ca="1">'October 2026 - December 2026'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:14">
@@ -35613,7 +35612,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="190">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="H11" s="191"/>
       <c r="I11" s="200" t="str">
@@ -35622,7 +35621,7 @@
       </c>
       <c r="J11" s="199">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>10720.71</v>
+        <v>11290.71</v>
       </c>
       <c r="M11" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35630,7 +35629,7 @@
       </c>
       <c r="N11" s="203">
         <f ca="1">'January 2027 - March 2027'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:14">
@@ -35646,7 +35645,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="190">
-        <v>0</v>
+        <v>118.01</v>
       </c>
       <c r="I12" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9)+9,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,10)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*10+9),"dd mmmm yyyy"))</f>
@@ -35654,7 +35653,7 @@
       </c>
       <c r="J12" s="199">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>12755.71</v>
+        <v>13325.71</v>
       </c>
       <c r="M12" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -35662,7 +35661,7 @@
       </c>
       <c r="N12" s="203">
         <f ca="1">'April 2027 - June 2027'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:14">
@@ -35678,7 +35677,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="202" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,10),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*10)+10,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,11)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11+10),"dd mmmm yyyy"))</f>
@@ -35686,7 +35685,7 @@
       </c>
       <c r="J13" s="199">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>14790.71</v>
+        <v>15360.71</v>
       </c>
       <c r="M13" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -35694,7 +35693,7 @@
       </c>
       <c r="N13" s="203">
         <f ca="1">'July 2027 - September 2027'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="14" ht="35.25" customHeight="1" spans="1:14">
@@ -35710,7 +35709,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="190">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="I14" s="202" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -35718,7 +35717,7 @@
       </c>
       <c r="J14" s="203">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>16825.71</v>
+        <v>17395.71</v>
       </c>
       <c r="M14" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -35726,7 +35725,7 @@
       </c>
       <c r="N14" s="203">
         <f ca="1">'October 2027 - December 2027'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="15" ht="35.25" customHeight="1" spans="1:14">
@@ -35750,7 +35749,7 @@
       </c>
       <c r="J15" s="203">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>18860.71</v>
+        <v>19430.71</v>
       </c>
       <c r="M15" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -35758,7 +35757,7 @@
       </c>
       <c r="N15" s="203">
         <f ca="1">'January 2028 - March 2028'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="16" ht="35.25" customHeight="1" spans="1:14">
@@ -35768,7 +35767,7 @@
       </c>
       <c r="C16" s="169">
         <f>SUM(C3:C15)</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D16" s="170"/>
       <c r="E16" s="168" t="s">
@@ -35776,7 +35775,7 @@
       </c>
       <c r="F16" s="193">
         <f>SUM(F3:F15)</f>
-        <v>0</v>
+        <v>941.71</v>
       </c>
       <c r="I16" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -35784,7 +35783,7 @@
       </c>
       <c r="J16" s="203">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>20895.71</v>
+        <v>21465.71</v>
       </c>
       <c r="M16" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -35792,7 +35791,7 @@
       </c>
       <c r="N16" s="203">
         <f ca="1">'April 2028 - June 2028'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="17" ht="35.25" customHeight="1" spans="9:14">
@@ -35802,7 +35801,7 @@
       </c>
       <c r="J17" s="203">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>22930.71</v>
+        <v>23500.71</v>
       </c>
       <c r="M17" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -35810,7 +35809,7 @@
       </c>
       <c r="N17" s="203">
         <f ca="1">'July 2028 - September 2028'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="1" spans="9:14">
@@ -35820,7 +35819,7 @@
       </c>
       <c r="J18" s="203">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>24965.71</v>
+        <v>25535.71</v>
       </c>
       <c r="M18" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -35828,7 +35827,7 @@
       </c>
       <c r="N18" s="199">
         <f ca="1">'October 2028 - December 2028'!C5</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="9:10">
@@ -35838,7 +35837,7 @@
       </c>
       <c r="J19" s="203">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>27000.71</v>
+        <v>27570.71</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -35848,7 +35847,7 @@
       </c>
       <c r="J20" s="203">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>29035.71</v>
+        <v>29605.71</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -35858,7 +35857,7 @@
       </c>
       <c r="J21" s="203">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>31070.71</v>
+        <v>31640.71</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -35878,7 +35877,7 @@
       </c>
       <c r="J22" s="203">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>33105.71</v>
+        <v>33675.71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -35903,7 +35902,7 @@
       </c>
       <c r="J23" s="203">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -35922,7 +35921,7 @@
       </c>
       <c r="J24" s="203">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -35941,7 +35940,7 @@
       </c>
       <c r="J25" s="203">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -35960,7 +35959,7 @@
       </c>
       <c r="J26" s="203">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -35979,7 +35978,7 @@
       </c>
       <c r="J27" s="203">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -35998,7 +35997,7 @@
       </c>
       <c r="J28" s="203">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36017,7 +36016,7 @@
       </c>
       <c r="J29" s="199">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36039,7 +36038,7 @@
       </c>
       <c r="J30" s="205">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36049,7 +36048,7 @@
       </c>
       <c r="J31" s="203">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36059,7 +36058,7 @@
       </c>
       <c r="J32" s="203">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36069,7 +36068,7 @@
       </c>
       <c r="J33" s="203">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36089,7 +36088,7 @@
       </c>
       <c r="J34" s="203">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36114,7 +36113,7 @@
       </c>
       <c r="J35" s="203">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36137,7 +36136,7 @@
       </c>
       <c r="J36" s="203">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36156,7 +36155,7 @@
       </c>
       <c r="J37" s="203">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36175,7 +36174,7 @@
       </c>
       <c r="J38" s="203">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36194,7 +36193,7 @@
       </c>
       <c r="J39" s="203">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36213,7 +36212,7 @@
       </c>
       <c r="J40" s="203">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36232,7 +36231,7 @@
       </c>
       <c r="J41" s="203">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36254,7 +36253,7 @@
       </c>
       <c r="J42" s="203">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36264,7 +36263,7 @@
       </c>
       <c r="J43" s="203">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36274,7 +36273,7 @@
       </c>
       <c r="J44" s="203">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36284,7 +36283,7 @@
       </c>
       <c r="J45" s="203">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36304,7 +36303,7 @@
       </c>
       <c r="J46" s="203">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36329,7 +36328,7 @@
       </c>
       <c r="J47" s="203">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36352,7 +36351,7 @@
       </c>
       <c r="J48" s="203">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36371,7 +36370,7 @@
       </c>
       <c r="J49" s="203">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36390,7 +36389,7 @@
       </c>
       <c r="J50" s="199">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -36880,7 +36879,7 @@
       </c>
       <c r="B112" s="218"/>
       <c r="C112" s="219">
-        <v>5400</v>
+        <v>5970</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="94"/>
@@ -37013,7 +37012,7 @@
       </c>
       <c r="C122" s="210">
         <f>SUM(C112:C121)</f>
-        <v>6483</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -37023,7 +37022,7 @@
       </c>
       <c r="C123" s="36">
         <f>C122+C110</f>
-        <v>6883</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="124" spans="5:5">
@@ -37270,7 +37269,7 @@
       </c>
       <c r="D149" s="81"/>
       <c r="E149" s="87">
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
     </row>
     <row r="150" ht="21.75" customHeight="1"/>
@@ -37307,7 +37306,7 @@
       <c r="D156" s="224"/>
       <c r="E156" s="87">
         <f>E149</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
     </row>
     <row r="157" ht="24.75" customHeight="1" spans="1:5">
@@ -37525,7 +37524,7 @@
       <c r="D176" s="81"/>
       <c r="E176" s="90">
         <f>(F42+E156)-(SUM(E159:E167)+SUM(E169:E175))</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
     </row>
     <row r="180" ht="24.75" customHeight="1"/>
@@ -37562,7 +37561,7 @@
       <c r="D183" s="224"/>
       <c r="E183" s="90">
         <f>E176</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
     </row>
     <row r="184" ht="24.75" customHeight="1" spans="1:5">
@@ -37780,7 +37779,7 @@
       <c r="D203" s="81"/>
       <c r="E203" s="90">
         <f>(F54+E183)-(SUM(E185:E194)+SUM(E196:E202))</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
     </row>
     <row r="204" ht="24.75" customHeight="1"/>
@@ -38248,8 +38247,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38286,7 +38285,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38300,7 +38299,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>4615.71</v>
+        <v>5185.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38314,7 +38313,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>5161.42</v>
+        <v>6301.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38330,7 +38329,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -38431,15 +38430,15 @@
     <row r="12" ht="24.75" customHeight="1" spans="1:9">
       <c r="A12" s="135"/>
       <c r="B12" s="113" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="146"/>
       <c r="F12" s="41">
-        <v>390</v>
+        <v>570</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="14"/>
@@ -38494,7 +38493,7 @@
       <c r="E16" s="44"/>
       <c r="F16" s="45">
         <f>SUM(F10:G15)</f>
-        <v>790</v>
+        <v>970</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="14"/>
@@ -39841,7 +39840,7 @@
       </c>
       <c r="C98" s="108" cm="1">
         <f ca="1" t="array" ref="C98">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E131")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E158")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E185")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C112")</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -40036,7 +40035,7 @@
       </c>
       <c r="C108" s="108">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -40052,7 +40051,7 @@
       </c>
       <c r="C109" s="108">
         <f ca="1">C108-C96</f>
-        <v>-6883</v>
+        <v>-7453</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -40146,7 +40145,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="87" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E203")</f>
-        <v>545.71</v>
+        <v>941.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -40314,8 +40313,8 @@
     <row r="129" ht="40.5" customHeight="1" spans="1:9">
       <c r="A129" s="62"/>
       <c r="B129" s="63"/>
-      <c r="C129" s="109" t="s">
-        <v>99</v>
+      <c r="C129" s="100" t="s">
+        <v>98</v>
       </c>
       <c r="D129" s="109"/>
       <c r="E129" s="98">
@@ -40326,15 +40325,15 @@
       <c r="H129" s="14"/>
       <c r="I129" s="47"/>
     </row>
-    <row r="130" ht="29" customHeight="1" spans="1:9">
+    <row r="130" ht="47" customHeight="1" spans="1:9">
       <c r="A130" s="62"/>
       <c r="B130" s="63"/>
       <c r="C130" s="100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D130" s="109"/>
       <c r="E130" s="98">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -40418,7 +40417,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -40510,7 +40509,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -40778,7 +40777,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>2580.71</v>
+        <v>3150.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -40862,14 +40861,14 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B170" s="56"/>
       <c r="C170" s="57"/>
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>2580.71</v>
+        <v>3150.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41137,7 +41136,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>4615.71</v>
+        <v>5185.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -41618,7 +41617,7 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -41652,7 +41651,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -41666,7 +41665,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>10720.71</v>
+        <v>11290.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -41680,7 +41679,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>11266.42</v>
+        <v>12406.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -41696,7 +41695,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -43195,7 +43194,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -43391,7 +43390,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -43407,7 +43406,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6883</v>
+        <v>-7453</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -43501,7 +43500,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="87" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>4615.71</v>
+        <v>5185.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43769,7 +43768,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6650.71</v>
+        <v>7220.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -43861,7 +43860,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>6650.71</v>
+        <v>7220.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44129,7 +44128,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8685.71</v>
+        <v>9255.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44221,7 +44220,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>8685.71</v>
+        <v>9255.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44489,7 +44488,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>10720.71</v>
+        <v>11290.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45074,7 +45073,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45090,7 +45089,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>16825.71</v>
+        <v>17395.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45106,7 +45105,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>17371.42</v>
+        <v>18511.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -45122,7 +45121,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -46621,7 +46620,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -46817,7 +46816,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -46833,7 +46832,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6883</v>
+        <v>-7453</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -46927,7 +46926,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>10720.71</v>
+        <v>11290.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47195,7 +47194,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12755.71</v>
+        <v>13325.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47287,7 +47286,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>12755.71</v>
+        <v>13325.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47555,7 +47554,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14790.71</v>
+        <v>15360.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -47647,7 +47646,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>14790.71</v>
+        <v>15360.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -47915,7 +47914,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>16825.71</v>
+        <v>17395.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48490,7 +48489,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48506,7 +48505,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>22930.71</v>
+        <v>23500.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48522,7 +48521,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>23476.42</v>
+        <v>24616.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -48538,7 +48537,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -50037,7 +50036,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -50233,7 +50232,7 @@
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -50249,7 +50248,7 @@
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-6883</v>
+        <v>-7453</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -50343,7 +50342,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>16825.71</v>
+        <v>17395.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50611,7 +50610,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18860.71</v>
+        <v>19430.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -50703,7 +50702,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>18860.71</v>
+        <v>19430.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -50971,7 +50970,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>20895.71</v>
+        <v>21465.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51063,7 +51062,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>20895.71</v>
+        <v>21465.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51331,7 +51330,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>22930.71</v>
+        <v>23500.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -51872,7 +51871,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -51888,7 +51887,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29035.71</v>
+        <v>29605.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -51904,7 +51903,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>29581.42</v>
+        <v>30721.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -51920,7 +51919,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -53419,7 +53418,7 @@
       </c>
       <c r="C98" s="108" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -53615,7 +53614,7 @@
       </c>
       <c r="C108" s="108">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -53631,7 +53630,7 @@
       </c>
       <c r="C109" s="108">
         <f ca="1">C108-C96</f>
-        <v>-6883</v>
+        <v>-7453</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -53725,7 +53724,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>22930.71</v>
+        <v>23500.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -53993,7 +53992,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>24965.71</v>
+        <v>25535.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54085,7 +54084,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>24965.71</v>
+        <v>25535.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54353,7 +54352,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>27000.71</v>
+        <v>27570.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54445,7 +54444,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>27000.71</v>
+        <v>27570.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -54713,7 +54712,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29035.71</v>
+        <v>29605.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55257,7 +55256,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>545.71</v>
+        <v>1115.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55273,7 +55272,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55289,7 +55288,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35686.42</v>
+        <v>36826.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55305,7 +55304,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -55388,7 +55387,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
@@ -56806,7 +56805,7 @@
       </c>
       <c r="C98" s="108" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5400</v>
+        <v>-5970</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -57002,7 +57001,7 @@
       </c>
       <c r="C108" s="108">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-6483</v>
+        <v>-7053</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -57018,7 +57017,7 @@
       </c>
       <c r="C109" s="108">
         <f ca="1">C108-C96</f>
-        <v>-6883</v>
+        <v>-7453</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -57112,7 +57111,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>29035.71</v>
+        <v>29605.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57380,7 +57379,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>31070.71</v>
+        <v>31640.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57472,7 +57471,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>31070.71</v>
+        <v>31640.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -57740,7 +57739,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>33105.71</v>
+        <v>33675.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -57832,7 +57831,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>33105.71</v>
+        <v>33675.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58100,7 +58099,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35140.71</v>
+        <v>35710.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast.xlsx
+++ b/Income And Expenses Forecast.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="3"/>
+    <workbookView windowHeight="21560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4729,7 +4729,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6538,7 +6538,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6806,7 +6806,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -6898,7 +6898,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7166,7 +7166,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7258,7 +7258,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7526,7 +7526,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8088,7 +8088,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -9897,7 +9897,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10165,7 +10165,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10257,7 +10257,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10525,7 +10525,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10617,7 +10617,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10885,7 +10885,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11448,7 +11448,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13257,7 +13257,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13525,7 +13525,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13617,7 +13617,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13885,7 +13885,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -13977,7 +13977,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14245,7 +14245,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14790,7 +14790,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14806,7 +14806,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16615,7 +16615,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16883,7 +16883,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -16975,7 +16975,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17243,7 +17243,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17335,7 +17335,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17603,7 +17603,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18150,7 +18150,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18166,7 +18166,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -19975,7 +19975,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20243,7 +20243,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20335,7 +20335,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20603,7 +20603,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20695,7 +20695,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -20963,7 +20963,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21492,7 +21492,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21508,7 +21508,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21524,7 +21524,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23333,7 +23333,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23601,7 +23601,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23693,7 +23693,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -23961,7 +23961,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24053,7 +24053,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24321,7 +24321,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -24851,7 +24851,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -24867,7 +24867,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -24883,7 +24883,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26692,7 +26692,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -26960,7 +26960,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27052,7 +27052,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27320,7 +27320,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27412,7 +27412,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27680,7 +27680,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28157,7 +28157,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28173,7 +28173,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28189,7 +28189,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -29997,7 +29997,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30265,7 +30265,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30357,7 +30357,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30625,7 +30625,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30717,7 +30717,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -30985,7 +30985,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31464,7 +31464,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31480,7 +31480,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31496,7 +31496,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33305,7 +33305,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33573,7 +33573,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33665,7 +33665,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -33933,7 +33933,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34025,7 +34025,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34293,7 +34293,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35275,8 +35275,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35346,7 +35346,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="163">
-        <v>99.4</v>
+        <v>49.4</v>
       </c>
       <c r="D3" s="164" t="s">
         <v>34</v>
@@ -35355,7 +35355,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="190">
-        <v>594.4</v>
+        <v>99.4</v>
       </c>
       <c r="I3" s="198" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35380,14 +35380,14 @@
         <v>36</v>
       </c>
       <c r="C4" s="163">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="D4" s="165"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="190">
-        <v>170</v>
+        <v>840</v>
       </c>
       <c r="I4" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
@@ -35459,7 +35459,7 @@
       </c>
       <c r="J6" s="199">
         <f ca="1">'April 2025 - June 2025'!E136</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="M6" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9+9),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -35483,7 +35483,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="190">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,4),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*4)+4,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,5)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*5+4),"dd mmmm yyyy"))</f>
@@ -35491,7 +35491,7 @@
       </c>
       <c r="J7" s="199">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>3150.71</v>
+        <v>2350.71</v>
       </c>
       <c r="M7" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35524,7 +35524,7 @@
       </c>
       <c r="J8" s="199">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>5185.71</v>
+        <v>4385.71</v>
       </c>
       <c r="M8" s="207" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="J9" s="199">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>7220.71</v>
+        <v>6420.71</v>
       </c>
       <c r="M9" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35588,7 +35588,7 @@
       </c>
       <c r="J10" s="199">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>9255.71</v>
+        <v>8455.71</v>
       </c>
       <c r="M10" s="209" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35605,14 +35605,14 @@
         <v>43</v>
       </c>
       <c r="C11" s="163">
-        <v>39.4</v>
+        <v>9.4</v>
       </c>
       <c r="D11" s="165"/>
       <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="190">
-        <v>29.4</v>
+        <v>39.4</v>
       </c>
       <c r="H11" s="191"/>
       <c r="I11" s="200" t="str">
@@ -35621,7 +35621,7 @@
       </c>
       <c r="J11" s="199">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>11290.71</v>
+        <v>10490.71</v>
       </c>
       <c r="M11" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35653,7 +35653,7 @@
       </c>
       <c r="J12" s="199">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>13325.71</v>
+        <v>12525.71</v>
       </c>
       <c r="M12" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -35685,7 +35685,7 @@
       </c>
       <c r="J13" s="199">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>15360.71</v>
+        <v>14560.71</v>
       </c>
       <c r="M13" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -35709,7 +35709,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="190">
-        <v>23.9</v>
+        <v>17.9</v>
       </c>
       <c r="I14" s="202" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -35717,7 +35717,7 @@
       </c>
       <c r="J14" s="203">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>17395.71</v>
+        <v>16595.71</v>
       </c>
       <c r="M14" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -35749,7 +35749,7 @@
       </c>
       <c r="J15" s="203">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>19430.71</v>
+        <v>18630.71</v>
       </c>
       <c r="M15" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -35767,7 +35767,7 @@
       </c>
       <c r="C16" s="169">
         <f>SUM(C3:C15)</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D16" s="170"/>
       <c r="E16" s="168" t="s">
@@ -35775,7 +35775,7 @@
       </c>
       <c r="F16" s="193">
         <f>SUM(F3:F15)</f>
-        <v>941.71</v>
+        <v>1115.71</v>
       </c>
       <c r="I16" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -35783,7 +35783,7 @@
       </c>
       <c r="J16" s="203">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>21465.71</v>
+        <v>20665.71</v>
       </c>
       <c r="M16" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -35801,7 +35801,7 @@
       </c>
       <c r="J17" s="203">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>23500.71</v>
+        <v>22700.71</v>
       </c>
       <c r="M17" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -35819,7 +35819,7 @@
       </c>
       <c r="J18" s="203">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>25535.71</v>
+        <v>24735.71</v>
       </c>
       <c r="M18" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -35837,7 +35837,7 @@
       </c>
       <c r="J19" s="203">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>27570.71</v>
+        <v>26770.71</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -35847,7 +35847,7 @@
       </c>
       <c r="J20" s="203">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>29605.71</v>
+        <v>28805.71</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -35857,7 +35857,7 @@
       </c>
       <c r="J21" s="203">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>31640.71</v>
+        <v>30840.71</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -35877,7 +35877,7 @@
       </c>
       <c r="J22" s="203">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>33675.71</v>
+        <v>32875.71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -35902,7 +35902,7 @@
       </c>
       <c r="J23" s="203">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -35921,7 +35921,7 @@
       </c>
       <c r="J24" s="203">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -35940,7 +35940,7 @@
       </c>
       <c r="J25" s="203">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -35959,7 +35959,7 @@
       </c>
       <c r="J26" s="203">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -35978,7 +35978,7 @@
       </c>
       <c r="J27" s="203">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -35997,7 +35997,7 @@
       </c>
       <c r="J28" s="203">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="J29" s="199">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36038,7 +36038,7 @@
       </c>
       <c r="J30" s="205">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36048,7 +36048,7 @@
       </c>
       <c r="J31" s="203">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36058,7 +36058,7 @@
       </c>
       <c r="J32" s="203">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36068,7 +36068,7 @@
       </c>
       <c r="J33" s="203">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36088,7 +36088,7 @@
       </c>
       <c r="J34" s="203">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36113,7 +36113,7 @@
       </c>
       <c r="J35" s="203">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36136,7 +36136,7 @@
       </c>
       <c r="J36" s="203">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36155,7 +36155,7 @@
       </c>
       <c r="J37" s="203">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36174,7 +36174,7 @@
       </c>
       <c r="J38" s="203">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36193,7 +36193,7 @@
       </c>
       <c r="J39" s="203">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36212,7 +36212,7 @@
       </c>
       <c r="J40" s="203">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36231,7 +36231,7 @@
       </c>
       <c r="J41" s="203">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36253,7 +36253,7 @@
       </c>
       <c r="J42" s="203">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="J43" s="203">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36273,7 +36273,7 @@
       </c>
       <c r="J44" s="203">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36283,7 +36283,7 @@
       </c>
       <c r="J45" s="203">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36303,7 +36303,7 @@
       </c>
       <c r="J46" s="203">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36328,7 +36328,7 @@
       </c>
       <c r="J47" s="203">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="J48" s="203">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36370,7 +36370,7 @@
       </c>
       <c r="J49" s="203">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36389,7 +36389,7 @@
       </c>
       <c r="J50" s="199">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -38247,8 +38247,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38285,7 +38285,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38299,7 +38299,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>5185.71</v>
+        <v>4385.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38313,7 +38313,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>6301.42</v>
+        <v>4701.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -40318,7 +40318,7 @@
       </c>
       <c r="D129" s="109"/>
       <c r="E129" s="98">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -40417,7 +40417,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -40509,7 +40509,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -40777,7 +40777,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>3150.71</v>
+        <v>2350.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -40868,7 +40868,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>3150.71</v>
+        <v>2350.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41136,7 +41136,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>5185.71</v>
+        <v>4385.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -41651,7 +41651,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -41665,7 +41665,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11290.71</v>
+        <v>10490.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -41679,7 +41679,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>12406.42</v>
+        <v>10806.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -43500,7 +43500,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="87" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>5185.71</v>
+        <v>4385.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43768,7 +43768,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>7220.71</v>
+        <v>6420.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -43860,7 +43860,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>7220.71</v>
+        <v>6420.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44128,7 +44128,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>9255.71</v>
+        <v>8455.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44220,7 +44220,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>9255.71</v>
+        <v>8455.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44488,7 +44488,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11290.71</v>
+        <v>10490.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45073,7 +45073,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45089,7 +45089,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17395.71</v>
+        <v>16595.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45105,7 +45105,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>18511.42</v>
+        <v>16911.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -46926,7 +46926,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>11290.71</v>
+        <v>10490.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47194,7 +47194,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>13325.71</v>
+        <v>12525.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47286,7 +47286,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>13325.71</v>
+        <v>12525.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47554,7 +47554,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>15360.71</v>
+        <v>14560.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -47646,7 +47646,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>15360.71</v>
+        <v>14560.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -47914,7 +47914,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17395.71</v>
+        <v>16595.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48489,7 +48489,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48505,7 +48505,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>23500.71</v>
+        <v>22700.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48521,7 +48521,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>24616.42</v>
+        <v>23016.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50342,7 +50342,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>17395.71</v>
+        <v>16595.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50610,7 +50610,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>19430.71</v>
+        <v>18630.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -50702,7 +50702,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>19430.71</v>
+        <v>18630.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -50970,7 +50970,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>21465.71</v>
+        <v>20665.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51062,7 +51062,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>21465.71</v>
+        <v>20665.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51330,7 +51330,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>23500.71</v>
+        <v>22700.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -51871,7 +51871,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -51887,7 +51887,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29605.71</v>
+        <v>28805.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -51903,7 +51903,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>30721.42</v>
+        <v>29121.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -53724,7 +53724,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>23500.71</v>
+        <v>22700.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -53992,7 +53992,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25535.71</v>
+        <v>24735.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54084,7 +54084,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>25535.71</v>
+        <v>24735.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54352,7 +54352,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>27570.71</v>
+        <v>26770.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54444,7 +54444,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>27570.71</v>
+        <v>26770.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -54712,7 +54712,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29605.71</v>
+        <v>28805.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55256,7 +55256,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1115.71</v>
+        <v>315.71</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55272,7 +55272,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55288,7 +55288,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>36826.42</v>
+        <v>35226.42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -57111,7 +57111,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>29605.71</v>
+        <v>28805.71</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57379,7 +57379,7 @@
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>31640.71</v>
+        <v>30840.71</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57471,7 +57471,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>31640.71</v>
+        <v>30840.71</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -57739,7 +57739,7 @@
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>33675.71</v>
+        <v>32875.71</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -57831,7 +57831,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>33675.71</v>
+        <v>32875.71</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58099,7 +58099,7 @@
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>35710.71</v>
+        <v>34910.71</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast.xlsx
+++ b/Income And Expenses Forecast.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21560" activeTab="2"/>
+    <workbookView windowHeight="21560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="112">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -298,13 +298,19 @@
     <t>Entertainment</t>
   </si>
   <si>
-    <t>Music</t>
+    <t>Sportify Music Paid For 7th of Each Month</t>
   </si>
   <si>
     <t>Hair Cutting</t>
   </si>
   <si>
     <t>Cigarettes</t>
+  </si>
+  <si>
+    <t>Oxford Dictionary</t>
+  </si>
+  <si>
+    <t>Paid For 19th of Each Month</t>
   </si>
   <si>
     <t>Grand Expenses Total</t>
@@ -389,12 +395,39 @@
     <t>Mother borrowed $570 For Buying Cigarette Buds</t>
   </si>
   <si>
-    <t>- See the Doctor ~ $125
+    <t>Additional Half Month Allowance</t>
+  </si>
+  <si>
+    <t>Sportify</t>
+  </si>
+  <si>
+    <t>Sportify $68 for 2 months</t>
+  </si>
+  <si>
+    <t>- See the Doctor ~ $110
 - Buy Cigarette Buds ~ $800</t>
   </si>
   <si>
     <t>-Visit prostitute $390
--Return Trip To Mong Kok ~ $6</t>
+-Return Trip To Mong Kok ~ $6
+~Brought a coke from a Machine ~ $6.5
+~Sportify Subscription For 2 months (till 7th July)~ $68
+~Oxford Dictionary $19.99 (Don't Need To Include)
+~Round Trip to the East Kowloon hospital ~ $4</t>
+  </si>
+  <si>
+    <t>~ Payback $570 to Mom</t>
+  </si>
+  <si>
+    <t>~ Food And Transport ~ $400
+~ See the Doctor (Injection) ~ $19
+~ See the Doctor For Blood Pressure ~ $50</t>
+  </si>
+  <si>
+    <t>~ Amazon Books $1066.15</t>
+  </si>
+  <si>
+    <t>~ Buy Cigarette Buds ~ $800</t>
   </si>
   <si>
     <t>Balance Brought Forward From July 2024</t>
@@ -524,7 +557,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -4662,8 +4694,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -4693,11 +4725,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4709,11 +4741,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4729,7 +4761,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4740,12 +4772,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -6050,7 +6082,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>0</v>
@@ -6103,11 +6135,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -6195,7 +6227,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -6210,7 +6242,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -6232,7 +6264,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -6424,11 +6456,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -6440,11 +6472,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -6513,7 +6545,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -6538,7 +6570,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6551,7 +6583,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -6694,7 +6726,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -6783,7 +6815,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -6801,12 +6833,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -6873,7 +6905,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -6898,7 +6930,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -6911,7 +6943,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -7054,7 +7086,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -7143,7 +7175,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -7161,12 +7193,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7233,7 +7265,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -7258,7 +7290,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7271,7 +7303,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -7414,7 +7446,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -7503,7 +7535,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -7521,12 +7553,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8052,11 +8084,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8068,11 +8100,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8088,7 +8120,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -8099,12 +8131,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -9409,7 +9441,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>0</v>
@@ -9462,11 +9494,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -9554,7 +9586,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -9569,7 +9601,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -9591,7 +9623,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -9783,11 +9815,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -9799,11 +9831,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -9872,7 +9904,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -9897,7 +9929,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -9910,7 +9942,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -10053,7 +10085,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -10142,7 +10174,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -10160,12 +10192,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10232,7 +10264,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -10257,7 +10289,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10270,7 +10302,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -10413,7 +10445,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -10502,7 +10534,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -10520,12 +10552,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10592,7 +10624,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -10617,7 +10649,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10630,7 +10662,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -10773,7 +10805,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -10862,7 +10894,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -10880,12 +10912,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11412,11 +11444,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11428,11 +11460,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11448,7 +11480,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -11459,12 +11491,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -12769,7 +12801,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>0</v>
@@ -12822,11 +12854,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -12914,7 +12946,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -12929,7 +12961,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -12951,7 +12983,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -13143,11 +13175,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -13159,11 +13191,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -13232,7 +13264,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -13257,7 +13289,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13270,7 +13302,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -13413,7 +13445,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -13502,7 +13534,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -13520,12 +13552,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13592,7 +13624,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -13617,7 +13649,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13630,7 +13662,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -13773,7 +13805,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -13862,7 +13894,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -13880,12 +13912,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -13952,7 +13984,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -13977,7 +14009,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -13990,7 +14022,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -14133,7 +14165,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -14222,7 +14254,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -14240,12 +14272,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14770,11 +14802,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14786,11 +14818,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14806,7 +14838,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -14817,12 +14849,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -16127,7 +16159,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>0</v>
@@ -16180,11 +16212,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -16272,7 +16304,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -16287,7 +16319,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -16309,7 +16341,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -16501,11 +16533,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -16517,11 +16549,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -16590,7 +16622,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -16615,7 +16647,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16628,7 +16660,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -16771,7 +16803,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -16860,7 +16892,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -16878,12 +16910,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -16950,7 +16982,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -16975,7 +17007,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -16988,7 +17020,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -17131,7 +17163,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -17220,7 +17252,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -17238,12 +17270,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17310,7 +17342,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -17335,7 +17367,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17348,7 +17380,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -17491,7 +17523,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -17580,7 +17612,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -17598,12 +17630,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18130,11 +18162,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18146,11 +18178,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18166,7 +18198,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -18177,12 +18209,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -19487,7 +19519,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>0</v>
@@ -19540,11 +19572,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -19632,7 +19664,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -19647,7 +19679,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -19669,7 +19701,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -19861,11 +19893,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -19877,11 +19909,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -19950,7 +19982,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -19975,7 +20007,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -19988,7 +20020,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -20131,7 +20163,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -20220,7 +20252,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -20238,12 +20270,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20310,7 +20342,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -20335,7 +20367,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20348,7 +20380,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -20491,7 +20523,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -20580,7 +20612,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -20598,12 +20630,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20670,7 +20702,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -20695,7 +20727,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -20708,7 +20740,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -20851,7 +20883,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -20940,7 +20972,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -20958,12 +20990,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21488,11 +21520,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21504,11 +21536,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21524,7 +21556,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -21535,12 +21567,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -22845,7 +22877,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>0</v>
@@ -22898,11 +22930,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -22990,7 +23022,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -23005,7 +23037,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -23027,7 +23059,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -23219,11 +23251,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -23235,11 +23267,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -23308,7 +23340,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -23333,7 +23365,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23346,7 +23378,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -23489,7 +23521,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -23578,7 +23610,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -23596,12 +23628,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23668,7 +23700,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -23693,7 +23725,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -23706,7 +23738,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -23849,7 +23881,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -23938,7 +23970,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -23956,12 +23988,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24028,7 +24060,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -24053,7 +24085,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24066,7 +24098,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -24209,7 +24241,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -24298,7 +24330,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -24316,12 +24348,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -24847,11 +24879,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -24863,11 +24895,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -24883,7 +24915,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -24894,12 +24926,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -26204,7 +26236,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="36">
         <v>0</v>
@@ -26257,11 +26289,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -26349,7 +26381,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -26364,7 +26396,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -26386,7 +26418,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -26578,11 +26610,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -26594,11 +26626,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -26667,7 +26699,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -26692,7 +26724,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -26705,7 +26737,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -26848,7 +26880,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -26937,7 +26969,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -26955,12 +26987,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27027,7 +27059,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -27052,7 +27084,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27065,7 +27097,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -27208,7 +27240,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -27297,7 +27329,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -27315,12 +27347,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27387,7 +27419,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -27412,7 +27444,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27425,7 +27457,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -27568,7 +27600,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -27657,7 +27689,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -27675,12 +27707,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28153,11 +28185,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28169,11 +28201,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28189,7 +28221,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -28200,12 +28232,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -29510,7 +29542,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="36">
         <v>0</v>
@@ -29563,11 +29595,11 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -29655,7 +29687,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -29670,7 +29702,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -29692,7 +29724,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -29767,7 +29799,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C102" s="36" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -29883,11 +29915,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -29899,11 +29931,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -29972,7 +30004,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -29997,7 +30029,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30010,7 +30042,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -30153,7 +30185,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -30242,7 +30274,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -30260,12 +30292,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30332,7 +30364,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -30357,7 +30389,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30370,7 +30402,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -30513,7 +30545,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -30602,7 +30634,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -30620,12 +30652,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30692,7 +30724,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -30717,7 +30749,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -30730,7 +30762,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -30873,7 +30905,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -30962,7 +30994,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -30980,12 +31012,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31460,11 +31492,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31476,11 +31508,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31496,7 +31528,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -31507,12 +31539,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -32817,7 +32849,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="36">
         <v>0</v>
@@ -32870,11 +32902,11 @@
     <row r="91" ht="35.25" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
         <v>0</v>
@@ -32962,7 +32994,7 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
@@ -32977,7 +33009,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
@@ -32999,7 +33031,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="68"/>
@@ -33191,11 +33223,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -33207,11 +33239,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -33280,7 +33312,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -33305,7 +33337,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33318,7 +33350,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -33461,7 +33493,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -33550,7 +33582,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
@@ -33568,12 +33600,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33640,7 +33672,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -33665,7 +33697,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -33678,7 +33710,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -33821,7 +33853,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -33910,7 +33942,7 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
@@ -33928,12 +33960,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34000,7 +34032,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -34025,7 +34057,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34038,7 +34070,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -34181,7 +34213,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -34270,7 +34302,7 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
@@ -34288,12 +34320,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35275,8 +35307,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35355,7 +35387,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="190">
-        <v>99.4</v>
+        <v>49.4</v>
       </c>
       <c r="I3" s="198" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35380,14 +35412,14 @@
         <v>36</v>
       </c>
       <c r="C4" s="163">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D4" s="165"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="190">
-        <v>840</v>
+        <v>120</v>
       </c>
       <c r="I4" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
@@ -35403,7 +35435,7 @@
       </c>
       <c r="N4" s="199">
         <f ca="1">'April 2025 - June 2025'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="5" ht="35.25" customHeight="1" spans="1:14">
@@ -35435,7 +35467,7 @@
       </c>
       <c r="N5" s="199">
         <f ca="1">'July 2025 - September 2025'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:14">
@@ -35459,7 +35491,7 @@
       </c>
       <c r="J6" s="199">
         <f ca="1">'April 2025 - June 2025'!E136</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="M6" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9+9),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -35467,7 +35499,7 @@
       </c>
       <c r="N6" s="199">
         <f ca="1">'October 2025 - December 2025'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="7" ht="35.25" customHeight="1" spans="1:14">
@@ -35491,7 +35523,7 @@
       </c>
       <c r="J7" s="199">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>2350.71</v>
+        <v>320.08</v>
       </c>
       <c r="M7" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35499,7 +35531,7 @@
       </c>
       <c r="N7" s="199">
         <f ca="1">'January 2026 - March 2026'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:14">
@@ -35524,7 +35556,7 @@
       </c>
       <c r="J8" s="199">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>4385.71</v>
+        <v>2335.09</v>
       </c>
       <c r="M8" s="207" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35532,7 +35564,7 @@
       </c>
       <c r="N8" s="199">
         <f ca="1">'April 2026 - June 2026'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="9" ht="39.75" customHeight="1" spans="1:14">
@@ -35556,7 +35588,7 @@
       </c>
       <c r="J9" s="199">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>6420.71</v>
+        <v>4350.1</v>
       </c>
       <c r="M9" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35564,7 +35596,7 @@
       </c>
       <c r="N9" s="208">
         <f ca="1">'July 2026 - September 2026'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="10" ht="35.25" customHeight="1" spans="1:14">
@@ -35588,7 +35620,7 @@
       </c>
       <c r="J10" s="199">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>8455.71</v>
+        <v>6365.11</v>
       </c>
       <c r="M10" s="209" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35596,7 +35628,7 @@
       </c>
       <c r="N10" s="199">
         <f ca="1">'October 2026 - December 2026'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:14">
@@ -35605,14 +35637,14 @@
         <v>43</v>
       </c>
       <c r="C11" s="163">
-        <v>9.4</v>
+        <v>19.4</v>
       </c>
       <c r="D11" s="165"/>
       <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="190">
-        <v>39.4</v>
+        <v>9.4</v>
       </c>
       <c r="H11" s="191"/>
       <c r="I11" s="200" t="str">
@@ -35621,7 +35653,7 @@
       </c>
       <c r="J11" s="199">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>10490.71</v>
+        <v>8380.12</v>
       </c>
       <c r="M11" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35629,7 +35661,7 @@
       </c>
       <c r="N11" s="203">
         <f ca="1">'January 2027 - March 2027'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:14">
@@ -35638,14 +35670,14 @@
         <v>44</v>
       </c>
       <c r="C12" s="163">
-        <v>118.01</v>
+        <v>30.02</v>
       </c>
       <c r="D12" s="165"/>
       <c r="E12" s="192" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="190">
-        <v>118.01</v>
+        <v>50.01</v>
       </c>
       <c r="I12" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9)+9,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,10)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*10+9),"dd mmmm yyyy"))</f>
@@ -35653,7 +35685,7 @@
       </c>
       <c r="J12" s="199">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>12525.71</v>
+        <v>10395.13</v>
       </c>
       <c r="M12" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -35661,7 +35693,7 @@
       </c>
       <c r="N12" s="203">
         <f ca="1">'April 2027 - June 2027'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:14">
@@ -35685,7 +35717,7 @@
       </c>
       <c r="J13" s="199">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>14560.71</v>
+        <v>12410.14</v>
       </c>
       <c r="M13" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -35693,7 +35725,7 @@
       </c>
       <c r="N13" s="203">
         <f ca="1">'July 2027 - September 2027'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="14" ht="35.25" customHeight="1" spans="1:14">
@@ -35702,14 +35734,14 @@
         <v>46</v>
       </c>
       <c r="C14" s="163">
-        <v>17.9</v>
+        <v>7.4</v>
       </c>
       <c r="D14" s="165"/>
       <c r="E14" s="192" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="190">
-        <v>17.9</v>
+        <v>11.4</v>
       </c>
       <c r="I14" s="202" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -35717,7 +35749,7 @@
       </c>
       <c r="J14" s="203">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>16595.71</v>
+        <v>14425.15</v>
       </c>
       <c r="M14" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -35725,7 +35757,7 @@
       </c>
       <c r="N14" s="203">
         <f ca="1">'October 2027 - December 2027'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="15" ht="35.25" customHeight="1" spans="1:14">
@@ -35749,7 +35781,7 @@
       </c>
       <c r="J15" s="203">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>18630.71</v>
+        <v>16440.16</v>
       </c>
       <c r="M15" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -35757,7 +35789,7 @@
       </c>
       <c r="N15" s="203">
         <f ca="1">'January 2028 - March 2028'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="16" ht="35.25" customHeight="1" spans="1:14">
@@ -35767,7 +35799,7 @@
       </c>
       <c r="C16" s="169">
         <f>SUM(C3:C15)</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D16" s="170"/>
       <c r="E16" s="168" t="s">
@@ -35775,7 +35807,7 @@
       </c>
       <c r="F16" s="193">
         <f>SUM(F3:F15)</f>
-        <v>1115.71</v>
+        <v>241.21</v>
       </c>
       <c r="I16" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -35783,7 +35815,7 @@
       </c>
       <c r="J16" s="203">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>20665.71</v>
+        <v>18455.17</v>
       </c>
       <c r="M16" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -35791,7 +35823,7 @@
       </c>
       <c r="N16" s="203">
         <f ca="1">'April 2028 - June 2028'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="17" ht="35.25" customHeight="1" spans="9:14">
@@ -35801,7 +35833,7 @@
       </c>
       <c r="J17" s="203">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>22700.71</v>
+        <v>20470.18</v>
       </c>
       <c r="M17" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -35809,7 +35841,7 @@
       </c>
       <c r="N17" s="203">
         <f ca="1">'July 2028 - September 2028'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="1" spans="9:14">
@@ -35819,7 +35851,7 @@
       </c>
       <c r="J18" s="203">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>24735.71</v>
+        <v>22485.19</v>
       </c>
       <c r="M18" s="200" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -35827,7 +35859,7 @@
       </c>
       <c r="N18" s="199">
         <f ca="1">'October 2028 - December 2028'!C5</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="9:10">
@@ -35837,7 +35869,7 @@
       </c>
       <c r="J19" s="203">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>26770.71</v>
+        <v>24500.2</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -35847,7 +35879,7 @@
       </c>
       <c r="J20" s="203">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>28805.71</v>
+        <v>26515.21</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -35857,7 +35889,7 @@
       </c>
       <c r="J21" s="203">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>30840.71</v>
+        <v>28530.22</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -35877,7 +35909,7 @@
       </c>
       <c r="J22" s="203">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>32875.71</v>
+        <v>30545.23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -35902,7 +35934,7 @@
       </c>
       <c r="J23" s="203">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -35921,7 +35953,7 @@
       </c>
       <c r="J24" s="203">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -35940,7 +35972,7 @@
       </c>
       <c r="J25" s="203">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -35959,7 +35991,7 @@
       </c>
       <c r="J26" s="203">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -35978,7 +36010,7 @@
       </c>
       <c r="J27" s="203">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -35997,7 +36029,7 @@
       </c>
       <c r="J28" s="203">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36016,7 +36048,7 @@
       </c>
       <c r="J29" s="199">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36038,7 +36070,7 @@
       </c>
       <c r="J30" s="205">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36048,7 +36080,7 @@
       </c>
       <c r="J31" s="203">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36058,7 +36090,7 @@
       </c>
       <c r="J32" s="203">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36068,7 +36100,7 @@
       </c>
       <c r="J33" s="203">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36088,7 +36120,7 @@
       </c>
       <c r="J34" s="203">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36113,7 +36145,7 @@
       </c>
       <c r="J35" s="203">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36136,7 +36168,7 @@
       </c>
       <c r="J36" s="203">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36155,7 +36187,7 @@
       </c>
       <c r="J37" s="203">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36174,7 +36206,7 @@
       </c>
       <c r="J38" s="203">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36193,7 +36225,7 @@
       </c>
       <c r="J39" s="203">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36212,7 +36244,7 @@
       </c>
       <c r="J40" s="203">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36231,7 +36263,7 @@
       </c>
       <c r="J41" s="203">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36253,7 +36285,7 @@
       </c>
       <c r="J42" s="203">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36263,7 +36295,7 @@
       </c>
       <c r="J43" s="203">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36273,7 +36305,7 @@
       </c>
       <c r="J44" s="203">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36283,7 +36315,7 @@
       </c>
       <c r="J45" s="203">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36303,7 +36335,7 @@
       </c>
       <c r="J46" s="203">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36328,7 +36360,7 @@
       </c>
       <c r="J47" s="203">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36351,7 +36383,7 @@
       </c>
       <c r="J48" s="203">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36370,7 +36402,7 @@
       </c>
       <c r="J49" s="203">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36389,7 +36421,7 @@
       </c>
       <c r="J50" s="199">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -36789,11 +36821,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" ht="46" customHeight="1" spans="1:3">
       <c r="A102" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="216" t="s">
+      <c r="B102" s="100" t="s">
         <v>74</v>
       </c>
       <c r="C102" s="98">
@@ -36819,8 +36851,12 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="50"/>
-      <c r="B105" s="187"/>
+      <c r="A105" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="187" t="s">
+        <v>78</v>
+      </c>
       <c r="C105" s="210">
         <v>0</v>
       </c>
@@ -36859,7 +36895,7 @@
     <row r="110" spans="1:3">
       <c r="A110" s="49"/>
       <c r="B110" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C110" s="210">
         <f>C69+C80+C89+C99+C109</f>
@@ -36868,14 +36904,14 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="184" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B111" s="185"/>
       <c r="C111" s="186"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="217" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B112" s="218"/>
       <c r="C112" s="219">
@@ -36889,7 +36925,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="217" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B113" s="187"/>
       <c r="C113" s="220">
@@ -36903,7 +36939,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="217" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B114" s="187"/>
       <c r="C114" s="221">
@@ -36917,7 +36953,7 @@
     </row>
     <row r="115" ht="39.75" customHeight="1" spans="1:8">
       <c r="A115" s="222" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B115" s="187"/>
       <c r="C115" s="221">
@@ -36931,7 +36967,7 @@
     </row>
     <row r="116" ht="34" spans="1:8">
       <c r="A116" s="222" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B116" s="187"/>
       <c r="C116" s="221">
@@ -36945,7 +36981,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B117" s="187"/>
       <c r="C117" s="36">
@@ -37008,7 +37044,7 @@
     <row r="122" spans="1:3">
       <c r="A122" s="211"/>
       <c r="B122" s="212" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C122" s="210">
         <f>SUM(C112:C121)</f>
@@ -37018,7 +37054,7 @@
     <row r="123" spans="1:3">
       <c r="A123" s="211"/>
       <c r="B123" s="212" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C123" s="36">
         <f>C122+C110</f>
@@ -37044,7 +37080,7 @@
     </row>
     <row r="129" ht="45" customHeight="1" spans="1:5">
       <c r="A129" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B129" s="54"/>
       <c r="C129" s="52" t="s">
@@ -37061,7 +37097,7 @@
       </c>
       <c r="B130" s="59"/>
       <c r="C130" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D130" s="61"/>
       <c r="E130" s="71"/>
@@ -37190,7 +37226,7 @@
       <c r="A141" s="62"/>
       <c r="B141" s="63"/>
       <c r="C141" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D141" s="61"/>
       <c r="E141" s="71"/>
@@ -37251,7 +37287,7 @@
     </row>
     <row r="148" ht="24.75" customHeight="1" spans="1:5">
       <c r="A148" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B148" s="76"/>
       <c r="C148" s="77"/>
@@ -37265,7 +37301,7 @@
       <c r="A149" s="79"/>
       <c r="B149" s="80"/>
       <c r="C149" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D149" s="81"/>
       <c r="E149" s="87">
@@ -37285,7 +37321,7 @@
     </row>
     <row r="155" ht="24.75" customHeight="1" spans="1:5">
       <c r="A155" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B155" s="54"/>
       <c r="C155" s="82" t="s">
@@ -37315,7 +37351,7 @@
       </c>
       <c r="B157" s="59"/>
       <c r="C157" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D157" s="85"/>
       <c r="E157" s="89"/>
@@ -37444,7 +37480,7 @@
       <c r="A168" s="62"/>
       <c r="B168" s="63"/>
       <c r="C168" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D168" s="61"/>
       <c r="E168" s="71"/>
@@ -37505,7 +37541,7 @@
     </row>
     <row r="175" ht="24.75" customHeight="1" spans="1:5">
       <c r="A175" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B175" s="76"/>
       <c r="C175" s="77"/>
@@ -37519,7 +37555,7 @@
       <c r="A176" s="79"/>
       <c r="B176" s="80"/>
       <c r="C176" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D176" s="81"/>
       <c r="E176" s="90">
@@ -37540,7 +37576,7 @@
     </row>
     <row r="182" ht="24.75" customHeight="1" spans="1:5">
       <c r="A182" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B182" s="54"/>
       <c r="C182" s="82" t="s">
@@ -37570,7 +37606,7 @@
       </c>
       <c r="B184" s="59"/>
       <c r="C184" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D184" s="85"/>
       <c r="E184" s="89"/>
@@ -37699,7 +37735,7 @@
       <c r="A195" s="62"/>
       <c r="B195" s="63"/>
       <c r="C195" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D195" s="61"/>
       <c r="E195" s="71"/>
@@ -37760,7 +37796,7 @@
     </row>
     <row r="202" ht="24.75" customHeight="1" spans="1:5">
       <c r="A202" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B202" s="76"/>
       <c r="C202" s="77"/>
@@ -37774,7 +37810,7 @@
       <c r="A203" s="79"/>
       <c r="B203" s="80"/>
       <c r="C203" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D203" s="81"/>
       <c r="E203" s="90">
@@ -38247,14 +38283,14 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="25" style="40" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="29.5069444444444" style="40" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="40" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="40" customWidth="1"/>
     <col min="5" max="5" width="27.625" style="40" customWidth="1"/>
@@ -38281,11 +38317,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38295,11 +38331,11 @@
     <row r="3" ht="42" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>4385.71</v>
+        <v>2335.09</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38313,7 +38349,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>4701.42</v>
+        <v>2442.31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38324,12 +38360,12 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -38396,11 +38432,11 @@
     <row r="10" ht="24.75" customHeight="1" spans="1:9">
       <c r="A10" s="135"/>
       <c r="B10" s="136" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="137"/>
       <c r="D10" s="138" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="145"/>
       <c r="F10" s="41">
@@ -38430,11 +38466,11 @@
     <row r="12" ht="24.75" customHeight="1" spans="1:9">
       <c r="A12" s="135"/>
       <c r="B12" s="113" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="126" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" s="146"/>
       <c r="F12" s="41">
@@ -38568,11 +38604,11 @@
     <row r="22" ht="24" customHeight="1" spans="1:9">
       <c r="A22" s="135"/>
       <c r="B22" s="141" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="137"/>
       <c r="D22" s="136" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="145"/>
       <c r="F22" s="147">
@@ -38584,12 +38620,16 @@
     </row>
     <row r="23" ht="26.25" customHeight="1" spans="1:9">
       <c r="A23" s="135"/>
-      <c r="B23" s="113"/>
+      <c r="B23" s="113" t="s">
+        <v>97</v>
+      </c>
       <c r="C23" s="114"/>
-      <c r="D23" s="142"/>
+      <c r="D23" s="142" t="s">
+        <v>100</v>
+      </c>
       <c r="E23" s="149"/>
       <c r="F23" s="7">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="14"/>
@@ -38597,12 +38637,16 @@
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:9">
       <c r="A24" s="135"/>
-      <c r="B24" s="113"/>
+      <c r="B24" s="113" t="s">
+        <v>101</v>
+      </c>
       <c r="C24" s="114"/>
-      <c r="D24" s="126"/>
+      <c r="D24" s="126" t="s">
+        <v>102</v>
+      </c>
       <c r="E24" s="146"/>
       <c r="F24" s="106">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G24" s="107"/>
       <c r="H24" s="14"/>
@@ -38657,7 +38701,7 @@
       <c r="E28" s="44"/>
       <c r="F28" s="45">
         <f>SUM(F22:G27)</f>
-        <v>2435</v>
+        <v>3538</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="14"/>
@@ -38732,7 +38776,7 @@
     <row r="34" ht="24.75" customHeight="1" spans="1:9">
       <c r="A34" s="135"/>
       <c r="B34" s="136" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="137"/>
       <c r="D34" s="138"/>
@@ -39650,14 +39694,14 @@
       <c r="H87" s="14"/>
       <c r="I87" s="47"/>
     </row>
-    <row r="88" ht="20.25" customHeight="1" spans="1:9">
+    <row r="88" ht="50" customHeight="1" spans="1:9">
       <c r="A88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="A88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A102")))</f>
         <v>Entertainment</v>
       </c>
-      <c r="B88" s="35" t="str" cm="1">
+      <c r="B88" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>68</v>
@@ -39710,14 +39754,14 @@
     <row r="91" ht="20.25" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -39790,7 +39834,7 @@
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
-        <v>123</v>
+        <v>142.99</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -39802,11 +39846,11 @@
     <row r="96" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -39840,7 +39884,7 @@
       </c>
       <c r="C98" s="108" cm="1">
         <f ca="1" t="array" ref="C98">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E131")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E158")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E185")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C112")</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -40031,11 +40075,11 @@
     <row r="108" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="108">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -40047,11 +40091,11 @@
     <row r="109" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="108">
         <f ca="1">C108-C96</f>
-        <v>-7453</v>
+        <v>-6902.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -40120,7 +40164,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -40158,7 +40202,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -40301,7 +40345,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -40314,26 +40358,26 @@
       <c r="A129" s="62"/>
       <c r="B129" s="63"/>
       <c r="C129" s="100" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D129" s="109"/>
       <c r="E129" s="98">
-        <v>800</v>
+        <v>910</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="47"/>
     </row>
-    <row r="130" ht="47" customHeight="1" spans="1:9">
+    <row r="130" ht="132" customHeight="1" spans="1:9">
       <c r="A130" s="62"/>
       <c r="B130" s="63"/>
       <c r="C130" s="100" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D130" s="109"/>
       <c r="E130" s="98">
-        <v>396</v>
+        <v>474.5</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -40394,14 +40438,14 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
       <c r="D135" s="78"/>
       <c r="E135" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -40412,12 +40456,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -40484,7 +40528,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -40509,7 +40553,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -40522,7 +40566,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -40534,10 +40578,12 @@
     <row r="145" ht="24.75" customHeight="1" spans="1:9">
       <c r="A145" s="62"/>
       <c r="B145" s="63"/>
-      <c r="C145" s="64"/>
+      <c r="C145" s="64" t="s">
+        <v>105</v>
+      </c>
       <c r="D145" s="65"/>
       <c r="E145" s="36">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
@@ -40665,7 +40711,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -40674,13 +40720,15 @@
       <c r="H155" s="14"/>
       <c r="I155" s="47"/>
     </row>
-    <row r="156" ht="24.75" customHeight="1" spans="1:9">
+    <row r="156" ht="65" customHeight="1" spans="1:9">
       <c r="A156" s="62"/>
       <c r="B156" s="63"/>
-      <c r="C156" s="109"/>
+      <c r="C156" s="100" t="s">
+        <v>106</v>
+      </c>
       <c r="D156" s="109"/>
       <c r="E156" s="98">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -40690,10 +40738,12 @@
     <row r="157" ht="24.75" customHeight="1" spans="1:9">
       <c r="A157" s="62"/>
       <c r="B157" s="63"/>
-      <c r="C157" s="109"/>
+      <c r="C157" s="109" t="s">
+        <v>107</v>
+      </c>
       <c r="D157" s="109"/>
       <c r="E157" s="98">
-        <v>0</v>
+        <v>1066.15</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -40703,10 +40753,12 @@
     <row r="158" ht="24.75" customHeight="1" spans="1:9">
       <c r="A158" s="62"/>
       <c r="B158" s="63"/>
-      <c r="C158" s="109"/>
+      <c r="C158" s="109" t="s">
+        <v>108</v>
+      </c>
       <c r="D158" s="109"/>
       <c r="E158" s="98">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
@@ -40754,14 +40806,14 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
       <c r="D162" s="78"/>
       <c r="E162" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -40772,12 +40824,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>2350.71</v>
+        <v>320.08</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -40844,7 +40896,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -40861,14 +40913,14 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="55" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B170" s="56"/>
       <c r="C170" s="57"/>
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>2350.71</v>
+        <v>320.08</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -40881,7 +40933,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -41024,7 +41076,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -41113,14 +41165,14 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
       <c r="D189" s="78"/>
       <c r="E189" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -41131,12 +41183,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>4385.71</v>
+        <v>2335.09</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -41617,8 +41669,8 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -41647,11 +41699,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -41661,11 +41713,11 @@
     <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>10490.71</v>
+        <v>8380.12</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -41679,7 +41731,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>10806.42</v>
+        <v>8487.34</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -41690,12 +41742,12 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -41762,11 +41814,11 @@
     <row r="10" ht="30" customHeight="1" spans="1:9">
       <c r="A10" s="95"/>
       <c r="B10" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="118" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="126"/>
       <c r="F10" s="7">
@@ -41926,11 +41978,11 @@
     <row r="22" ht="30" customHeight="1" spans="1:9">
       <c r="A22" s="95"/>
       <c r="B22" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="118" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="126"/>
       <c r="F22" s="7">
@@ -42090,11 +42142,11 @@
     <row r="34" ht="30" customHeight="1" spans="1:9">
       <c r="A34" s="95"/>
       <c r="B34" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="118" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34" s="126"/>
       <c r="F34" s="7">
@@ -43012,7 +43064,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>68</v>
@@ -43062,17 +43114,17 @@
       <c r="H90" s="14"/>
       <c r="I90" s="47"/>
     </row>
-    <row r="91" ht="30" customHeight="1" spans="1:9">
+    <row r="91" ht="44" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -43145,7 +43197,7 @@
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
-        <v>123</v>
+        <v>142.99</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -43157,11 +43209,11 @@
     <row r="96" ht="30" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -43172,7 +43224,7 @@
     </row>
     <row r="97" ht="30" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -43194,7 +43246,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -43386,11 +43438,11 @@
     <row r="108" ht="30" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -43402,11 +43454,11 @@
     <row r="109" ht="30" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7453</v>
+        <v>-6902.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -43475,7 +43527,7 @@
     </row>
     <row r="115" ht="30" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -43500,7 +43552,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="87" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>4385.71</v>
+        <v>2335.09</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43513,7 +43565,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -43656,7 +43708,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -43745,14 +43797,14 @@
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
       <c r="D135" s="78"/>
       <c r="E135" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -43763,12 +43815,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6420.71</v>
+        <v>4350.1</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -43835,7 +43887,7 @@
     </row>
     <row r="142" ht="30" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -43860,7 +43912,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>6420.71</v>
+        <v>4350.1</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -43873,7 +43925,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -44016,7 +44068,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -44105,14 +44157,14 @@
     </row>
     <row r="162" ht="30" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
       <c r="D162" s="78"/>
       <c r="E162" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -44123,12 +44175,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8455.71</v>
+        <v>6365.11</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44195,7 +44247,7 @@
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -44220,7 +44272,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>8455.71</v>
+        <v>6365.11</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44233,7 +44285,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -44376,7 +44428,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -44465,14 +44517,14 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
       <c r="D189" s="78"/>
       <c r="E189" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -44483,12 +44535,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>10490.71</v>
+        <v>8380.12</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45038,8 +45090,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -45069,11 +45121,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45085,11 +45137,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>16595.71</v>
+        <v>14425.15</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45105,7 +45157,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>16911.42</v>
+        <v>14532.37</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -45116,12 +45168,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -45188,11 +45240,11 @@
     <row r="10" ht="24.75" customHeight="1" spans="1:9">
       <c r="A10" s="95"/>
       <c r="B10" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="115"/>
       <c r="D10" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="116"/>
       <c r="F10" s="7">
@@ -45352,11 +45404,11 @@
     <row r="22" ht="24.75" customHeight="1" spans="1:9">
       <c r="A22" s="95"/>
       <c r="B22" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="97"/>
       <c r="F22" s="7">
@@ -45516,11 +45568,11 @@
     <row r="34" ht="24.75" customHeight="1" spans="1:9">
       <c r="A34" s="95"/>
       <c r="B34" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="116" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34" s="117"/>
       <c r="F34" s="7">
@@ -46438,7 +46490,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>68</v>
@@ -46491,14 +46543,14 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -46571,7 +46623,7 @@
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
-        <v>123</v>
+        <v>142.99</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -46583,11 +46635,11 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -46598,7 +46650,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -46620,7 +46672,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -46812,11 +46864,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -46828,11 +46880,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7453</v>
+        <v>-6902.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -46901,7 +46953,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -46926,7 +46978,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>10490.71</v>
+        <v>8380.12</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -46939,7 +46991,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -47082,7 +47134,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -47171,14 +47223,14 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
       <c r="D135" s="78"/>
       <c r="E135" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -47189,12 +47241,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12525.71</v>
+        <v>10395.13</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47261,7 +47313,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -47286,7 +47338,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>12525.71</v>
+        <v>10395.13</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47299,7 +47351,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -47442,7 +47494,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -47531,14 +47583,14 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
       <c r="D162" s="78"/>
       <c r="E162" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -47549,12 +47601,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14560.71</v>
+        <v>12410.14</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -47621,7 +47673,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -47646,7 +47698,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>14560.71</v>
+        <v>12410.14</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -47659,7 +47711,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -47802,7 +47854,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -47891,14 +47943,14 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
       <c r="D189" s="78"/>
       <c r="E189" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -47909,12 +47961,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>16595.71</v>
+        <v>14425.15</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48454,7 +48506,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -48485,11 +48537,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48501,11 +48553,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>22700.71</v>
+        <v>20470.18</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48521,7 +48573,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>23016.42</v>
+        <v>20577.4</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -48532,12 +48584,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -48604,11 +48656,11 @@
     <row r="10" ht="24.75" customHeight="1" spans="1:9">
       <c r="A10" s="95"/>
       <c r="B10" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="97"/>
       <c r="F10" s="7">
@@ -48768,11 +48820,11 @@
     <row r="22" ht="24.75" customHeight="1" spans="1:9">
       <c r="A22" s="95"/>
       <c r="B22" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="97"/>
       <c r="F22" s="7">
@@ -48932,11 +48984,11 @@
     <row r="34" ht="24.75" customHeight="1" spans="1:9">
       <c r="A34" s="95"/>
       <c r="B34" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34" s="97"/>
       <c r="F34" s="7">
@@ -49854,7 +49906,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>68</v>
@@ -49907,14 +49959,14 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -49987,7 +50039,7 @@
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
-        <v>123</v>
+        <v>142.99</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -49999,11 +50051,11 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -50014,7 +50066,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -50036,7 +50088,7 @@
       </c>
       <c r="C98" s="36" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -50228,11 +50280,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="36">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -50244,11 +50296,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="36">
         <f ca="1">C108-C96</f>
-        <v>-7453</v>
+        <v>-6902.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -50317,7 +50369,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -50342,7 +50394,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>16595.71</v>
+        <v>14425.15</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50355,7 +50407,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -50498,7 +50550,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -50587,14 +50639,14 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
       <c r="D135" s="78"/>
       <c r="E135" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -50605,12 +50657,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18630.71</v>
+        <v>16440.16</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -50677,7 +50729,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -50702,7 +50754,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>18630.71</v>
+        <v>16440.16</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -50715,7 +50767,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -50858,7 +50910,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -50947,14 +50999,14 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
       <c r="D162" s="78"/>
       <c r="E162" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -50965,12 +51017,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>20665.71</v>
+        <v>18455.17</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51037,7 +51089,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -51062,7 +51114,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>20665.71</v>
+        <v>18455.17</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51075,7 +51127,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -51218,7 +51270,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -51307,14 +51359,14 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
       <c r="D189" s="78"/>
       <c r="E189" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -51325,12 +51377,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>22700.71</v>
+        <v>20470.18</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -51838,7 +51890,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:B188"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -51867,11 +51919,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -51883,11 +51935,11 @@
     <row r="3" ht="24.75" customHeight="1" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>28805.71</v>
+        <v>26515.21</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -51903,7 +51955,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>29121.42</v>
+        <v>26622.43</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -51914,12 +51966,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -51986,11 +52038,11 @@
     <row r="10" ht="24.75" customHeight="1" spans="1:9">
       <c r="A10" s="95"/>
       <c r="B10" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="97"/>
       <c r="F10" s="7">
@@ -52150,11 +52202,11 @@
     <row r="22" ht="24.75" customHeight="1" spans="1:9">
       <c r="A22" s="95"/>
       <c r="B22" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="97"/>
       <c r="F22" s="7">
@@ -52314,11 +52366,11 @@
     <row r="34" ht="24.75" customHeight="1" spans="1:9">
       <c r="A34" s="95"/>
       <c r="B34" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34" s="97"/>
       <c r="F34" s="7">
@@ -53236,7 +53288,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>68</v>
@@ -53289,14 +53341,14 @@
     <row r="91" ht="24.75" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -53369,7 +53421,7 @@
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
-        <v>123</v>
+        <v>142.99</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -53381,11 +53433,11 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -53396,7 +53448,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -53418,7 +53470,7 @@
       </c>
       <c r="C98" s="108" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -53610,11 +53662,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="108">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -53626,11 +53678,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="108">
         <f ca="1">C108-C96</f>
-        <v>-7453</v>
+        <v>-6902.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -53699,7 +53751,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -53724,7 +53776,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>22700.71</v>
+        <v>20470.18</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -53737,7 +53789,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -53880,7 +53932,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -53969,14 +54021,14 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
       <c r="D135" s="78"/>
       <c r="E135" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -53987,12 +54039,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>24735.71</v>
+        <v>22485.19</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54059,7 +54111,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -54084,7 +54136,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>24735.71</v>
+        <v>22485.19</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54097,7 +54149,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -54240,7 +54292,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -54329,14 +54381,14 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
       <c r="D162" s="78"/>
       <c r="E162" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -54347,12 +54399,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>26770.71</v>
+        <v>24500.2</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54419,7 +54471,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -54444,7 +54496,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>26770.71</v>
+        <v>24500.2</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -54457,7 +54509,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -54600,7 +54652,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -54689,14 +54741,14 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
       <c r="D189" s="78"/>
       <c r="E189" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -54707,12 +54759,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>28805.71</v>
+        <v>26515.21</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55222,8 +55274,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188:D188"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -55252,11 +55304,11 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>315.71</v>
+        <v>107.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55268,11 +55320,11 @@
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55288,7 +55340,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35226.42</v>
+        <v>32667.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55299,12 +55351,12 @@
     </row>
     <row r="5" ht="24.75" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -55371,11 +55423,11 @@
     <row r="10" ht="24.75" customHeight="1" spans="1:9">
       <c r="A10" s="95"/>
       <c r="B10" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="97"/>
       <c r="F10" s="7">
@@ -55387,7 +55439,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="95" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
@@ -55537,11 +55589,11 @@
     <row r="22" ht="24.75" customHeight="1" spans="1:9">
       <c r="A22" s="95"/>
       <c r="B22" s="96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="97"/>
       <c r="F22" s="7">
@@ -55701,11 +55753,11 @@
     <row r="34" ht="24.75" customHeight="1" spans="1:9">
       <c r="A34" s="95"/>
       <c r="B34" s="104" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="105"/>
       <c r="D34" s="104" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34" s="105"/>
       <c r="F34" s="106">
@@ -56623,7 +56675,7 @@
       </c>
       <c r="B88" s="35" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Music</v>
+        <v>Sportify Music Paid For 7th of Each Month</v>
       </c>
       <c r="C88" s="98">
         <v>68</v>
@@ -56673,17 +56725,17 @@
       <c r="H90" s="14"/>
       <c r="I90" s="47"/>
     </row>
-    <row r="91" ht="24.75" customHeight="1" spans="1:9">
+    <row r="91" ht="35" customHeight="1" spans="1:9">
       <c r="A91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
-        <v/>
+        <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="37" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v/>
+        <v>Paid For 19th of Each Month</v>
       </c>
       <c r="C91" s="36">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -56756,7 +56808,7 @@
       </c>
       <c r="C95" s="36">
         <f>SUM(C87:C94)</f>
-        <v>123</v>
+        <v>142.99</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -56768,11 +56820,11 @@
     <row r="96" ht="24.75" customHeight="1" spans="1:9">
       <c r="A96" s="49"/>
       <c r="B96" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="36">
         <f>C55+C66+C75+C85+C95</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -56783,7 +56835,7 @@
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:9">
       <c r="A97" s="91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -56805,7 +56857,7 @@
       </c>
       <c r="C98" s="108" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-5970</v>
+        <v>-5400</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="94"/>
@@ -56997,11 +57049,11 @@
     <row r="108" ht="24.75" customHeight="1" spans="1:9">
       <c r="A108" s="49"/>
       <c r="B108" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" s="108">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-7053</v>
+        <v>-6483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -57013,11 +57065,11 @@
     <row r="109" ht="24.75" customHeight="1" spans="1:9">
       <c r="A109" s="49"/>
       <c r="B109" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C109" s="108">
         <f ca="1">C108-C96</f>
-        <v>-7453</v>
+        <v>-6902.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -57086,7 +57138,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" s="54"/>
       <c r="C115" s="52" t="s">
@@ -57111,7 +57163,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="70" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>28805.71</v>
+        <v>26515.21</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57124,7 +57176,7 @@
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="71"/>
@@ -57267,7 +57319,7 @@
       <c r="A128" s="62"/>
       <c r="B128" s="63"/>
       <c r="C128" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D128" s="61"/>
       <c r="E128" s="71"/>
@@ -57356,14 +57408,14 @@
     </row>
     <row r="135" ht="24.75" customHeight="1" spans="1:9">
       <c r="A135" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="76"/>
       <c r="C135" s="77"/>
       <c r="D135" s="78"/>
       <c r="E135" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -57374,12 +57426,12 @@
       <c r="A136" s="79"/>
       <c r="B136" s="80"/>
       <c r="C136" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D136" s="81"/>
       <c r="E136" s="87">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>30840.71</v>
+        <v>28530.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57446,7 +57498,7 @@
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:9">
       <c r="A142" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B142" s="54"/>
       <c r="C142" s="82" t="s">
@@ -57471,7 +57523,7 @@
       <c r="D143" s="57"/>
       <c r="E143" s="87">
         <f ca="1">E136</f>
-        <v>30840.71</v>
+        <v>28530.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -57484,7 +57536,7 @@
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D144" s="85"/>
       <c r="E144" s="89"/>
@@ -57627,7 +57679,7 @@
       <c r="A155" s="62"/>
       <c r="B155" s="63"/>
       <c r="C155" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D155" s="61"/>
       <c r="E155" s="71"/>
@@ -57716,14 +57768,14 @@
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:9">
       <c r="A162" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B162" s="76"/>
       <c r="C162" s="77"/>
       <c r="D162" s="78"/>
       <c r="E162" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -57734,12 +57786,12 @@
       <c r="A163" s="79"/>
       <c r="B163" s="80"/>
       <c r="C163" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D163" s="81"/>
       <c r="E163" s="90">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>32875.71</v>
+        <v>30545.23</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -57806,7 +57858,7 @@
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:9">
       <c r="A169" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B169" s="54"/>
       <c r="C169" s="82" t="s">
@@ -57831,7 +57883,7 @@
       <c r="D170" s="57"/>
       <c r="E170" s="90">
         <f ca="1">E163</f>
-        <v>32875.71</v>
+        <v>30545.23</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -57844,7 +57896,7 @@
       </c>
       <c r="B171" s="59"/>
       <c r="C171" s="84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D171" s="85"/>
       <c r="E171" s="89"/>
@@ -57987,7 +58039,7 @@
       <c r="A182" s="62"/>
       <c r="B182" s="63"/>
       <c r="C182" s="66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="61"/>
       <c r="E182" s="71"/>
@@ -58076,14 +58128,14 @@
     </row>
     <row r="189" ht="24.75" customHeight="1" spans="1:9">
       <c r="A189" s="55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B189" s="76"/>
       <c r="C189" s="77"/>
       <c r="D189" s="78"/>
       <c r="E189" s="86">
         <f>C96</f>
-        <v>400</v>
+        <v>419.99</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -58094,12 +58146,12 @@
       <c r="A190" s="79"/>
       <c r="B190" s="80"/>
       <c r="C190" s="81" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D190" s="81"/>
       <c r="E190" s="90">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34910.71</v>
+        <v>32560.24</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
